--- a/data/programs.xlsx
+++ b/data/programs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\박준철\chatbot_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA5B8DC-B091-4631-9FC2-2C485C0F764A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{233225EF-5370-4B99-BAE0-4CC962CB2FF6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,15 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
-  <si>
-    <t>원 전공 전필과목 포함 39(*36)학점 이상 + 복수전공 전필과목 포함 39(*36)학점 이상 * 법학전공을 제외한 인문사회계열은 36학점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원 전공 전필과목 포함 51(*48)학점 이상 + 부전공 전필과목 포함 27학점 이상 * 법학전공을 제외한 인문사회계열은 48학점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
   <si>
     <t>원 전공의 교양 졸업 요구학점 이상 이수</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,34 +47,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>원 전공 전필과목 포함 78(*72)학점 이상 + 연계전공 전공 교과목 9학점 이상 * 법학전공을 제외한 인문사회계열은 72학점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원 전공 전필과목 포함 39(*36)학점 이상 + 융합전공 전필과목 포함 39학점 이상 * 법학전공을 제외한 인문사회계열은 36학점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원 전공 전필과목 포함 51(*48)학점 이상 + 융합부전공 전필과목 포함 27학점 이상 * 법학전공을 제외한 인문사회계열은 48학점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>소단위전공과정(마이크로디그리)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>적은 학점으로 다양한 전공을 경험해 볼 수 있는 제도입니다. 본인 전공과목과 중복 인정이 가능해 효율적으로 이수할 수 있으며, 3개 교과목 이상 이수 시 연계전공 신청도 가능합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2개 이상의 전공이 융합된 새로운 전공으로 AI융합학부에 속해 있습니다. 스마트헬스케어융합전공 등 7개 전공이 개설되어 있으며 복수전공처럼 2개의 학위를 받을 수 있습니다. 일부 전공은 특별한 학위명이 부여되며 중도 포기해도 융합부전공 요건을 충족하면 인정받을 수 있습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원전공 졸업요구학점 + 소단위전공과정별 8~12학점    ※ 원 전공과목과 소단위전공과정의 교과목이 중복될 경우 중복 인정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>제도명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -91,10 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이수학점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>신청자격</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -127,16 +91,160 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2개(원전공, 복수전공)</t>
-  </si>
-  <si>
-    <t>1개(원전공)</t>
-  </si>
-  <si>
-    <t>2개(원전공, 융합전공)</t>
-  </si>
-  <si>
-    <t>1개(원전공), 이수증 별도 발급</t>
+    <t>기타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시각미디어디자인전공의 복수전공은 면담 및 추가 제출서류 있을 수 있습니다.(접수 시 전공에서 개별안내)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시각미디어디자인전공의 부전공은 면담 및 추가 제출서류 있을 수 있습니다.(접수 시 전공에서 개별안내), 부전공은 학부제 학생만 신청 가능(2020학번 이후 신입생, 2022학번 이후 편입생)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2개 이상의 전공이 융합된 새로운 전공으로 AI융합학부에 속해 있습니다. 스마트헬스케어융합전공, AI스마트팜융합전공, AI빅데이터융합전공, 공공헬스케어IT융합전공, 반도체융합전공, 스마트애그리푸드시스템전공, 탄소중립바이오시스템융합전공이 개설되어 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>융합전공은 신입생은 2020학번 이후, 편입생은 2022학번 이후부터 신청 가능합니다.(학부제 학생만 신청 가능)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>융합부전공은 신입생은 2020학번 이후, 편입생은 2022학번 이후부터 신청 가능합니다.(학부제 학생만 신청 가능)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이수학점(교양)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>졸업시험</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>졸업인증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학위기에 원전공명, 복수전공명 표기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학위기에 원전공명, 부전공명 표기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학위기에 원전공명, 연계전공명 표기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학위기에 원전공명, 융합전공명 표기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학위기에 원전공명, 융합부전공명 표기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학위기에 원전공명 표기, 이수증 별도 발급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원전공과 특정 분야의 추가 전문성을 확보할 수 있는 제도입니다. 복수전공에 비해 난이도와 학점 부담이 적어 상대적으로 이수하기가 쉽습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원전공 이수학점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다전공 이수학점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원전공 졸업요구학점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연계전공 전공 교과목 9학점 이상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부전공 전필과목 포함 27학점 이상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>융합전공 전필과목 포함 39학점 이상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>융합부전공 전필과목 포함 27학점 이상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원전공 이외에 다른 전공의 전공과정을 이수하여 학위를 인정받는 제도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원전공 이외에 다른 전공의 전공과정을 복수전공보다 적은 학점으로 이수하는 제도(학위는 인정 X)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2개 이상의 전공이 융합하여 새로운 전공을 만든 제도(2개의 학위가 인정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>융합전공보다 적은 학점으로 이수하는 제도(학위는 인정 X)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복수전공 전필과목 포함 39학점 이상(법학전공을 제외한 인문사회계열은 36학점 이상)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원 전공 전필과목 포함 39학점 이상(법학전공을 제외한 인문사회계열은 36학점 이상)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원 전공 전필과목 포함 51학점 이상(법학전공을 제외한 인문사회계열은 48학점 이상)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원 전공 전필과목 포함 78학점 이상(법학전공을 제외한 인문사회계열은 72학점 이상)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원전공 이외에 다른 전공에서 정한 교과목을 이수하는 제도. 대학생들에게 다양한 전공 선택 기회를 제공하는 새로운 전공 이수방법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적은 학점으로 다양한 전공을 경험해 볼 수 있는 제도. 본인 전공과목과 중복 인정이 가능하며, 3개 교과목 이상 이수 시 연계전공 신청도 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소단위전공과정별 8~12학점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원전공과목과 소단위전공과정의 교과목이 중복될 경우 중복 인정됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원전공 합격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원전공 및 복수전공 합격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원전공 및 융합전공 합격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2개 이상의 전공이 융합된 새로운 전공으로 AI융합학부에 속해 있습니다., 스마트헬스케어융합전공 / AI스마트팜융합전공 / AI빅데이터융합전공 / 공공헬스케어IT융합전공 / 반도체융합전공 / 스마트애그리푸드시스템전공 / 탄소중립바이오시스템융합전공이 개설되어 있으며 복수전공처럼 2개의 학위를 받을 수 있습니다., 일부 전공은 특별한 학위명이 부여되며 중도 포기해도 융합부전공 요건을 충족하면 인정받을 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -179,8 +287,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -461,176 +578,288 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.875" customWidth="1"/>
+    <col min="1" max="1" width="30.625" customWidth="1"/>
+    <col min="2" max="2" width="131.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.25" customWidth="1"/>
+    <col min="4" max="4" width="76.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="92.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="1">
+        <v>4</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="1">
+        <v>3</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="1">
+        <v>2</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="165" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="1">
+        <v>4</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="B6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="1">
+        <v>3</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G1" t="s">
-        <v>20</v>
+      <c r="L6" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2">
-        <v>4</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="D7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="I7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5">
-        <v>4</v>
-      </c>
-      <c r="G5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-      <c r="G6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7" t="s">
-        <v>2</v>
+      <c r="K7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
